--- a/data/trans_orig/DC_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>103099</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87094</v>
+        <v>85659</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>122534</v>
+        <v>121530</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1872420273496472</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1581756056430886</v>
+        <v>0.155568825355408</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2225398488932439</v>
+        <v>0.2207162036442649</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>236</v>
@@ -762,19 +762,19 @@
         <v>171920</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>153216</v>
+        <v>152265</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>190462</v>
+        <v>189570</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.351998976879714</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3137039953642925</v>
+        <v>0.311756570490992</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3899623251968538</v>
+        <v>0.38813616228539</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>353</v>
@@ -783,19 +783,19 @@
         <v>275019</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>250145</v>
+        <v>247700</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>303898</v>
+        <v>302411</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2646884469312144</v>
+        <v>0.2646884469312143</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2407487446524185</v>
+        <v>0.2383960743179467</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2924825263949967</v>
+        <v>0.2910515830158419</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>447519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>428084</v>
+        <v>429088</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>463524</v>
+        <v>464959</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8127579726503529</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7774601511067563</v>
+        <v>0.779283796355735</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8418243943569114</v>
+        <v>0.8444311746445922</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>450</v>
@@ -833,19 +833,19 @@
         <v>316491</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>297949</v>
+        <v>298841</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>335195</v>
+        <v>336146</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.648001023120286</v>
+        <v>0.6480010231202858</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6100376748031464</v>
+        <v>0.6118638377146102</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6862960046357076</v>
+        <v>0.688243429509008</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>887</v>
@@ -854,19 +854,19 @@
         <v>764010</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>735131</v>
+        <v>736618</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>788884</v>
+        <v>791329</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7353115530687857</v>
+        <v>0.7353115530687856</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7075174736050033</v>
+        <v>0.7089484169841581</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7592512553475814</v>
+        <v>0.7616039256820533</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>93409</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75675</v>
+        <v>76360</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>111165</v>
+        <v>111259</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1933082707027315</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1566092780428814</v>
+        <v>0.1580250344913718</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.230054087097439</v>
+        <v>0.2302496548704309</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>234</v>
@@ -979,19 +979,19 @@
         <v>161647</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>145024</v>
+        <v>144216</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>179647</v>
+        <v>181209</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3820150600755074</v>
+        <v>0.3820150600755075</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3427293225857589</v>
+        <v>0.3408206161651182</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4245538421018235</v>
+        <v>0.4282450315786111</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>335</v>
@@ -1000,19 +1000,19 @@
         <v>255056</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>230313</v>
+        <v>229311</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>279661</v>
+        <v>280909</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2814083301226722</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2541094902537375</v>
+        <v>0.2530032456583787</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3085557338878826</v>
+        <v>0.3099321990636701</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>389803</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>372047</v>
+        <v>371953</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>407537</v>
+        <v>406852</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8066917292972684</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.769945912902561</v>
+        <v>0.769750345129569</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8433907219571186</v>
+        <v>0.8419749655086283</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>356</v>
@@ -1050,19 +1050,19 @@
         <v>261496</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>243496</v>
+        <v>241934</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>278119</v>
+        <v>278927</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6179849399244924</v>
+        <v>0.6179849399244925</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5754461578981764</v>
+        <v>0.5717549684213888</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6572706774142411</v>
+        <v>0.6591793838348819</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>736</v>
@@ -1071,19 +1071,19 @@
         <v>651299</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>626694</v>
+        <v>625446</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>676042</v>
+        <v>677044</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7185916698773278</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6914442661121176</v>
+        <v>0.69006780093633</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7458905097462625</v>
+        <v>0.7469967543416215</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>128428</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>109869</v>
+        <v>110184</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148727</v>
+        <v>148514</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2723179282290743</v>
+        <v>0.2723179282290742</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2329648200207663</v>
+        <v>0.2336319000121942</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3153587806698275</v>
+        <v>0.314908076730624</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>142</v>
@@ -1196,19 +1196,19 @@
         <v>89955</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78037</v>
+        <v>78907</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101887</v>
+        <v>100951</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4797683955057055</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4162035153672953</v>
+        <v>0.4208438340558092</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.54340851631269</v>
+        <v>0.5384121528402389</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>288</v>
@@ -1217,19 +1217,19 @@
         <v>218384</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>195956</v>
+        <v>194742</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>240377</v>
+        <v>241550</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3313315350479032</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2973044698299205</v>
+        <v>0.2954621277433382</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3646999711252865</v>
+        <v>0.3664788891133206</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>343184</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>322885</v>
+        <v>323098</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>361743</v>
+        <v>361428</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7276820717709258</v>
+        <v>0.7276820717709257</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6846412193301724</v>
+        <v>0.6850919232693758</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7670351799792338</v>
+        <v>0.7663680999878058</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>147</v>
@@ -1267,19 +1267,19 @@
         <v>97542</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85610</v>
+        <v>86546</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>109460</v>
+        <v>108590</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5202316044942945</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.45659148368731</v>
+        <v>0.4615878471597612</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5837964846327047</v>
+        <v>0.5791561659441908</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>489</v>
@@ -1288,19 +1288,19 @@
         <v>440725</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>418732</v>
+        <v>417559</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>463153</v>
+        <v>464367</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6686684649520968</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6353000288747137</v>
+        <v>0.6335211108866795</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7026955301700794</v>
+        <v>0.7045378722566616</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>293722</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>262244</v>
+        <v>263144</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>322987</v>
+        <v>321304</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2595073334079634</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2316962410918036</v>
+        <v>0.2324919623674065</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2853635677615862</v>
+        <v>0.2838765024168525</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>491</v>
@@ -1413,19 +1413,19 @@
         <v>328944</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>305164</v>
+        <v>304770</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>353562</v>
+        <v>354623</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3819547617230613</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3543425385322729</v>
+        <v>0.3538853066543401</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4105409508531642</v>
+        <v>0.4117728106092179</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>826</v>
@@ -1434,19 +1434,19 @@
         <v>622665</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>582763</v>
+        <v>584515</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>660921</v>
+        <v>666557</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3124176473128369</v>
+        <v>0.312417647312837</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2923971224343461</v>
+        <v>0.2932761150814823</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3316121391223958</v>
+        <v>0.3344399150204256</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>838121</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>808856</v>
+        <v>810539</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>869599</v>
+        <v>868699</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7404926665920366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7146364322384139</v>
+        <v>0.7161234975831474</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7683037589081966</v>
+        <v>0.7675080376325936</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>739</v>
@@ -1484,19 +1484,19 @@
         <v>532267</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>507649</v>
+        <v>506588</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>556047</v>
+        <v>556441</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6180452382769387</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5894590491468361</v>
+        <v>0.5882271893907822</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6456574614677271</v>
+        <v>0.64611469334566</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1522</v>
@@ -1505,19 +1505,19 @@
         <v>1370389</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1332133</v>
+        <v>1326497</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1410291</v>
+        <v>1408539</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6875823526871629</v>
+        <v>0.6875823526871631</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6683878608776046</v>
+        <v>0.6655600849795743</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.707602877565654</v>
+        <v>0.7067238849185178</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>143331</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122661</v>
+        <v>123399</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>166738</v>
+        <v>165095</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.252359477430355</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2159661911999474</v>
+        <v>0.2172646934444174</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2935722060885052</v>
+        <v>0.2906789239361417</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>669</v>
@@ -1630,19 +1630,19 @@
         <v>399564</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>376399</v>
+        <v>373695</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>423966</v>
+        <v>422485</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4809093137002603</v>
+        <v>0.4809093137002604</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4530291907204059</v>
+        <v>0.4497744166827589</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5102804084434469</v>
+        <v>0.508496821803109</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>830</v>
@@ -1651,19 +1651,19 @@
         <v>542895</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>508522</v>
+        <v>513355</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>575623</v>
+        <v>581242</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3881106841750451</v>
+        <v>0.388110684175045</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3635376712661522</v>
+        <v>0.3669931631347148</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4115078429998264</v>
+        <v>0.4155247244356834</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>424633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>401226</v>
+        <v>402869</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>445303</v>
+        <v>444565</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7476405225696452</v>
+        <v>0.7476405225696449</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.706427793911495</v>
+        <v>0.7093210760638583</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7840338088000526</v>
+        <v>0.7827353065555825</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>621</v>
@@ -1701,19 +1701,19 @@
         <v>431286</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>406884</v>
+        <v>408365</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>454451</v>
+        <v>457155</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5190906862997398</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.489719591556553</v>
+        <v>0.4915031781968911</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5469708092795941</v>
+        <v>0.550225583317241</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1007</v>
@@ -1722,19 +1722,19 @@
         <v>855919</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>823191</v>
+        <v>817572</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>890292</v>
+        <v>885459</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.611889315824955</v>
+        <v>0.6118893158249548</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5884921570001733</v>
+        <v>0.5844752755643166</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6364623287338477</v>
+        <v>0.6330068368652852</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>25693</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14559</v>
+        <v>12954</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43113</v>
+        <v>42427</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1083068488984554</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06137040677550104</v>
+        <v>0.05460743897302381</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1817374602140567</v>
+        <v>0.1788438955102366</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>505</v>
@@ -1847,19 +1847,19 @@
         <v>322428</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>295988</v>
+        <v>297110</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>350198</v>
+        <v>350830</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.381896349448657</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3505800421461938</v>
+        <v>0.3519087508629025</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4147879590194402</v>
+        <v>0.4155366244413437</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>523</v>
@@ -1868,19 +1868,19 @@
         <v>348121</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>317310</v>
+        <v>316729</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>383652</v>
+        <v>385555</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3218847943523063</v>
+        <v>0.3218847943523062</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2933957251935252</v>
+        <v>0.2928584336405656</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3547378018642676</v>
+        <v>0.3564970321730435</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>211535</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194115</v>
+        <v>194801</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>222669</v>
+        <v>224274</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8916931511015447</v>
+        <v>0.8916931511015446</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8182625397859439</v>
+        <v>0.8211561044897632</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9386295932244992</v>
+        <v>0.9453925610269762</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>654</v>
@@ -1918,19 +1918,19 @@
         <v>521853</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>494083</v>
+        <v>493451</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>548293</v>
+        <v>547171</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.618103650551343</v>
+        <v>0.6181036505513431</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5852120409805595</v>
+        <v>0.5844633755586562</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6494199578538059</v>
+        <v>0.6480912491370975</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>748</v>
@@ -1939,19 +1939,19 @@
         <v>733388</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>697857</v>
+        <v>695954</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>764199</v>
+        <v>764780</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6781152056476939</v>
+        <v>0.678115205647694</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6452621981357326</v>
+        <v>0.6435029678269567</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7066042748064747</v>
+        <v>0.7071415663594344</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>787682</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>740021</v>
+        <v>736865</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>842942</v>
+        <v>836895</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2288126197881837</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2149677202319784</v>
+        <v>0.2140509230211748</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2448649620401436</v>
+        <v>0.2431084330746635</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2277</v>
@@ -2064,19 +2064,19 @@
         <v>1474457</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1422416</v>
+        <v>1426481</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1523408</v>
+        <v>1524101</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4055840220256812</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3912688600937181</v>
+        <v>0.3923868916192524</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4190490824237301</v>
+        <v>0.4192395601066352</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3155</v>
@@ -2085,19 +2085,19 @@
         <v>2262139</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2184015</v>
+        <v>2188319</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2338524</v>
+        <v>2339282</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3196073963130621</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3085695987131237</v>
+        <v>0.3091776029497344</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3303994848699112</v>
+        <v>0.3305065163517464</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2654794</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2599534</v>
+        <v>2605581</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2702455</v>
+        <v>2705611</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7711873802118164</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7551350379598565</v>
+        <v>0.7568915669253364</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7850322797680217</v>
+        <v>0.7859490769788253</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2967</v>
@@ -2135,19 +2135,19 @@
         <v>2160936</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2111985</v>
+        <v>2111292</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2212977</v>
+        <v>2208912</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5944159779743188</v>
+        <v>0.5944159779743189</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5809509175762698</v>
+        <v>0.5807604398933647</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6087311399062819</v>
+        <v>0.6076131083807477</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5389</v>
@@ -2156,19 +2156,19 @@
         <v>4815730</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4739345</v>
+        <v>4738587</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4893854</v>
+        <v>4889550</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.680392603686938</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6696005151300886</v>
+        <v>0.6694934836482536</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6914304012868764</v>
+        <v>0.6908223970502657</v>
       </c>
     </row>
     <row r="24">
